--- a/Plancheck/check_protocol/defaut.xlsx
+++ b/Plancheck/check_protocol/defaut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -31,12 +31,6 @@
     <t>CT_slice_width</t>
   </si>
   <si>
-    <t>Vessie</t>
-  </si>
-  <si>
-    <t>Rectum</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -79,33 +73,9 @@
     <t>Non</t>
   </si>
   <si>
-    <t>Grele</t>
-  </si>
-  <si>
-    <t>PTV BD</t>
-  </si>
-  <si>
     <t>PTV HD</t>
   </si>
   <si>
-    <t>PTV MD</t>
-  </si>
-  <si>
-    <t>Sarco iliaques</t>
-  </si>
-  <si>
-    <t>Sigmoide</t>
-  </si>
-  <si>
-    <t>TeteFemorDte</t>
-  </si>
-  <si>
-    <t>TeteFemorGche</t>
-  </si>
-  <si>
-    <t>Uretre</t>
-  </si>
-  <si>
     <t>CouchInterior</t>
   </si>
   <si>
@@ -332,39 +302,6 @@
   </si>
   <si>
     <t>D95%&gt;95%</t>
-  </si>
-  <si>
-    <t>D1cc&lt;72,4Gy</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;73,5Gy</t>
-  </si>
-  <si>
-    <t>V58Gy&lt;50%</t>
-  </si>
-  <si>
-    <t>V67Gy&lt;25%</t>
-  </si>
-  <si>
-    <t>V71Gy&lt;5%</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;74,8Gy</t>
-  </si>
-  <si>
-    <t>mean&lt;45Gy</t>
-  </si>
-  <si>
-    <t>V55Gy&lt;5%</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;59Gy</t>
-  </si>
-  <si>
-    <t>V15Gy&lt;830cc</t>
-  </si>
-  <si>
-    <t>V45Gy&lt;150cc</t>
   </si>
   <si>
     <t>Algo options</t>
@@ -988,7 +925,7 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1020,7 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1414,7 +1350,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="12" customWidth="1"/>
@@ -1422,758 +1358,758 @@
     <col min="6" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="41.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" style="15" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="L2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="L3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="L4" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="L6" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="L7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="L9" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="L10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="L13" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="L14" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="L15" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="L17" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="L18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="L19" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="L21" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="L22" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="L23" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="29">
+        <v>200</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="L26" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="29">
+        <v>200</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="L27" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="L28" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="L29" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="L30" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="L31" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="L32" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="L33" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="L34" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="L3" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1.25</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="L4" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="L7" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="L9" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="L35" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="L36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="L10" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="L13" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="L14" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="L15" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="L16" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="L17" s="16" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="L37" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="L18" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="L19" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="L21" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="L22" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="30" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="L38" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="L39" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="L40" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="L41" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="22">
+        <v>300</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="22">
+        <v>3</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="22">
+        <v>100</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="22">
+        <v>30</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="L48" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="L49" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="L23" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="30">
-        <v>200</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="L26" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="30">
-        <v>200</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="L27" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="L28" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="L29" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="L30" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="L31" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="27">
-        <v>0.125</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="L32" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="27">
-        <v>0.125</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="L33" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="L34" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="L35" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="L36" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="L37" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="L38" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="L39" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="L40" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="L41" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="23">
-        <v>300</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="23">
-        <v>3</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="23">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="23">
-        <v>30</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="L48" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="L49" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L51" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L52" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L55" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L56" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L57" s="16" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L58" s="16" t="s">
-        <v>122</v>
+      <c r="L58" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L59" s="16" t="s">
-        <v>123</v>
+      <c r="L59" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L60" s="16" t="s">
-        <v>124</v>
+      <c r="L60" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L61" s="16" t="s">
-        <v>125</v>
+      <c r="L61" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,33 +2165,33 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2208,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,25 +2219,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2253,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,47 +2264,47 @@
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-1000</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>-300</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2381,10 +2317,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,141 +2333,56 @@
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/check_protocol/defaut.xlsx
+++ b/Plancheck/check_protocol/defaut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -1344,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,9 +1474,7 @@
       <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2149,10 +2147,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,14 +2182,6 @@
       </c>
       <c r="G1" s="10" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2309,7 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Plancheck/check_protocol/defaut.xlsx
+++ b/Plancheck/check_protocol/defaut.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,9 +1503,7 @@
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
